--- a/biology/Botanique/Azara_lanceolata/Azara_lanceolata.xlsx
+++ b/biology/Botanique/Azara_lanceolata/Azara_lanceolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azara lanceolata ("Corcolen", "aromo" en espagnol) est une espèce de plantes à fleursde la famille des Salicaceae. C'est un arbuste à feuillage persistant de 3 à 5 m de haut, aux branches minces, souples et longues. On le rencontre des deux côtés de la cordillère des Andes dans le sud de l'Argentine et du Chili.
 Il a des feuilles alternes, dentées, lancéolées ou elliptiques, à stipules très foliacés. Le limbe d'un vert vif, de 3 à 7 cm de long sur 1 à 2 de large, a une nervure centrale forte. Les fleurs sont jaunes, hermaphrodites, l'inflorescence est en corymbe. Elles ont 4 à 5 tépales poilus, de nombreuses étamines, un pistil à quatre loges. Le fruit est une baie de couleur rose à blanc, sphérique, de 6 mm de diamètre, contenant de nombreuses graines de 2 mm de long.
